--- a/referencias_profesionales.xlsx
+++ b/referencias_profesionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goideas.sharepoint.com/sites/LocalGoideas/Documentos compartidos/Desarrollo/Sitio-Apolo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_CFA893B042561A5C38D759BB5AA1AC3F624098B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AB6C1E4-9712-46CE-A70B-04018EF207D9}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_CFA893B042561A5C38D759BB5AA1AC3F624098B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47A886EA-75BB-4DCF-8645-70D7C1FADAB0}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Referencias" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -86,25 +86,121 @@
     <t>Recomendaci?n: captura en esta plantilla y luego exporta a CSV para integraci?n autom?tica.</t>
   </si>
   <si>
-    <t>Apolo Pego Mora</t>
-  </si>
-  <si>
-    <t>Fundador</t>
-  </si>
-  <si>
-    <t>Go-Ideas</t>
-  </si>
-  <si>
-    <t>Gracias por ser parte de mi vida profesional</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
-    <t>Apolo Pego</t>
+    <t>No</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Apolo va más allá del código o del proceso estadístico; destaca por su disposición genuina para entender el contexto de cada problema, anticiparse a las necesidades del equipo y acompañarnos incluso en situaciones que escapan al alcance del proyecto. Esa combinación de competencia técnica y servicio hace que sea un verdadero partner.</t>
+  </si>
+  <si>
+    <t>Apolo es una persona con amplio conocimiento estadístico y matemático aplicado a Research. Puede atender problemas complejos y es muy profesional.</t>
+  </si>
+  <si>
+    <t>Un líder capaz, estructurado y coherente con lo que piensa y actúa, pero sobre todo, una excelente persona.</t>
+  </si>
+  <si>
+    <t>Tuve la oportunidad de coincidir con Apolo durante un periodo de cinco años en Ipsos México, donde aprendí de sus amplias capacidades de análisis y de su profesionalismo en cada uno de los proyectos que realizamos juntos. En una primera etapa, como cliente interno, siempre recibí un gran apoyo de su parte con análisis profundos y entregables que superaban expectativas. Posteriormente, durante mi gestión como Director de Operaciones en Ipsos, tuve la posibilidad de trabajar en el mismo equipo y siempre recibí de Apolo respaldo y garantía de calidad en las áreas que dirigía, lo que nos permitía dejar completamente satisfechas a las áreas comerciales. Fue una gran experiencia esa etapa de trabajo en equipo.</t>
+  </si>
+  <si>
+    <t>Trabajar con Apolo es sinónimo de valor agregado para mí y mis clientes. Siempre suma su experiencia y conocimiento para mejorar los resultados del análisis de datos, lo que se refleja en insights más contundentes para la toma de decisiones.</t>
+  </si>
+  <si>
+    <t>Tengo el gusto de conocer a Apolo desde hace 15 años. Siempre hemos realizado proyectos de Analytics complejos. La consistencia de su trabajo, la profundidad de sus análisis, su disposición y flexibilidad, y en general la calidad de sus entregables, nos han permitido responder de manera clara y contundente y desarrollar estrategias ganadoras para nuestros clientes. Es una persona que escucha y reflexiona antes de proponer soluciones, y aporta mucho valor.</t>
+  </si>
+  <si>
+    <t>He tenido la oportunidad de trabajar con Apolo Pego y puedo decir que es un colega con una capacidad técnica sobresaliente y, al mismo tiempo, muy enfocado en generar soluciones útiles y aterrizadas.
+Como actuario, tiene un dominio sólido de estadística, modelación y análisis de datos, y destaca especialmente por su habilidad para estructurar problemas complejos y convertirlos en modelos claros y bien fundamentados. En los proyectos que desarrollamos juntos, trabajó desde la limpieza y exploración de datos hasta la construcción y validación de modelos estadísticos, siempre con rigor metodológico y criterios técnicos bien sustentados.
+Más allá del análisis, como desarrollador tiene una gran fortaleza: entiende perfectamente las necesidades del cliente y traduce los requerimientos de negocio en herramientas funcionales y modelos accionables. No se queda en la teoría; implementa soluciones prácticas, bien estructuradas y listas para usarse en entornos reales.
+Es un profesional con pensamiento analítico, alto nivel técnico y una actitud muy colaborativa. Sin duda, alguien en quien confiar para proyectos que requieran profundidad cuantitativa y claridad estratégica.</t>
+  </si>
+  <si>
+    <t>Directora General</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Coordinador Data Processing</t>
+  </si>
+  <si>
+    <t>Director General</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Socio Fundador</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>MrNeux</t>
+  </si>
+  <si>
+    <t>Brain</t>
+  </si>
+  <si>
+    <t>Ipsos</t>
+  </si>
+  <si>
+    <t>Smartabs</t>
+  </si>
+  <si>
+    <t>DeRosearch</t>
+  </si>
+  <si>
+    <t>Strat Branding</t>
+  </si>
+  <si>
+    <t>Smart Sponsorship Evolution</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Colega</t>
+  </si>
+  <si>
+    <t>Jefe directo</t>
+  </si>
+  <si>
+    <t>Colega y Jefe directo</t>
+  </si>
+  <si>
+    <t>Cliente desde hace 15 años y buen amigo</t>
+  </si>
+  <si>
+    <t>Colega / Cliente</t>
+  </si>
+  <si>
+    <t>Estefanía Castro</t>
+  </si>
+  <si>
+    <t>Laura Ruvalcaba</t>
+  </si>
+  <si>
+    <t>Oscar Frías</t>
+  </si>
+  <si>
+    <t>Carlos Frías Martínez</t>
+  </si>
+  <si>
+    <t>Alejandro Ruiz Marmolejo</t>
+  </si>
+  <si>
+    <t>Manuel Rico</t>
+  </si>
+  <si>
+    <t>José Luis Barajas Vallejo</t>
+  </si>
+  <si>
+    <t>Carlos Frías</t>
+  </si>
+  <si>
+    <t>José Luis Barajas</t>
   </si>
 </sst>
 </file>
@@ -156,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -165,6 +261,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,10 +279,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,11 +568,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M491"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -493,7 +588,7 @@
     <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,132 +629,266 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4">
+        <v>46078</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4">
+        <v>46078</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4">
+        <v>46078</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4">
+        <v>46078</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="4">
+        <v>46078</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+    <row r="7" spans="1:13" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="4">
+        <v>46078</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="8" spans="1:13" ht="270.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4">
+        <v>46078</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -674,7 +903,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -689,7 +918,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -704,7 +933,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -719,7 +948,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -734,7 +963,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -749,7 +978,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -764,7 +993,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -779,7 +1008,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -794,7 +1023,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -809,7 +1038,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -824,7 +1053,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -839,7 +1068,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -854,7 +1083,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -869,7 +1098,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -884,7 +1113,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -899,7 +1128,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -914,7 +1143,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -929,7 +1158,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -944,7 +1173,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -959,7 +1188,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -974,7 +1203,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -989,7 +1218,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1004,7 +1233,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1019,7 +1248,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1034,7 +1263,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1049,7 +1278,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1064,7 +1293,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1079,7 +1308,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1094,7 +1323,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1109,7 +1338,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1124,7 +1353,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1139,7 +1368,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1154,7 +1383,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1169,7 +1398,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1184,7 +1413,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1199,7 +1428,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1214,7 +1443,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1229,7 +1458,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1244,7 +1473,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1259,7 +1488,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1274,7 +1503,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1289,7 +1518,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1304,7 +1533,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1319,7 +1548,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1334,7 +1563,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1349,7 +1578,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1364,7 +1593,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1379,7 +1608,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1394,7 +1623,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1409,7 +1638,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1424,7 +1653,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1439,7 +1668,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1454,7 +1683,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1469,7 +1698,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1484,7 +1713,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1499,7 +1728,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1514,7 +1743,7 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1529,7 +1758,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1544,7 +1773,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1559,7 +1788,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1574,7 +1803,7 @@
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1589,7 +1818,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1604,7 +1833,7 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1619,7 +1848,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1634,7 +1863,7 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1649,7 +1878,7 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1664,7 +1893,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1679,7 +1908,7 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1694,7 +1923,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1709,7 +1938,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1724,7 +1953,7 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1739,7 +1968,7 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1754,7 +1983,7 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1769,7 +1998,7 @@
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1784,7 +2013,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1799,7 +2028,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1814,7 +2043,7 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1829,7 +2058,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1844,7 +2073,7 @@
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1859,7 +2088,7 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1874,7 +2103,7 @@
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1889,7 +2118,7 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1904,7 +2133,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1919,7 +2148,7 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1934,7 +2163,7 @@
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1949,7 +2178,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1964,7 +2193,7 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1979,7 +2208,7 @@
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1994,7 +2223,7 @@
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2009,7 +2238,7 @@
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2024,7 +2253,7 @@
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2039,7 +2268,7 @@
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2054,7 +2283,7 @@
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2069,7 +2298,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2084,7 +2313,7 @@
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2099,7 +2328,7 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2114,7 +2343,7 @@
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2129,7 +2358,7 @@
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2144,7 +2373,7 @@
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2159,7 +2388,7 @@
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2174,7 +2403,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2189,7 +2418,7 @@
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2204,7 +2433,7 @@
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2219,7 +2448,7 @@
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2234,7 +2463,7 @@
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2249,7 +2478,7 @@
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2264,7 +2493,7 @@
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2279,7 +2508,7 @@
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2294,7 +2523,7 @@
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2309,7 +2538,7 @@
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2324,7 +2553,7 @@
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2339,7 +2568,7 @@
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2354,7 +2583,7 @@
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2369,7 +2598,7 @@
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2384,7 +2613,7 @@
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2399,7 +2628,7 @@
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2414,7 +2643,7 @@
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2429,7 +2658,7 @@
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2444,7 +2673,7 @@
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2459,7 +2688,7 @@
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2474,7 +2703,7 @@
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2489,7 +2718,7 @@
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2504,7 +2733,7 @@
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2519,7 +2748,7 @@
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2534,7 +2763,7 @@
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2549,7 +2778,7 @@
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2564,7 +2793,7 @@
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2579,7 +2808,7 @@
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2594,7 +2823,7 @@
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2609,7 +2838,7 @@
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2624,7 +2853,7 @@
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2639,7 +2868,7 @@
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2654,7 +2883,7 @@
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2669,7 +2898,7 @@
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2684,7 +2913,7 @@
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2699,7 +2928,7 @@
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2714,7 +2943,7 @@
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2729,7 +2958,7 @@
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2744,7 +2973,7 @@
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2759,7 +2988,7 @@
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2774,7 +3003,7 @@
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2789,7 +3018,7 @@
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2804,7 +3033,7 @@
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2819,7 +3048,7 @@
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2834,7 +3063,7 @@
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2849,7 +3078,7 @@
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2864,7 +3093,7 @@
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2879,7 +3108,7 @@
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2894,7 +3123,7 @@
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2909,7 +3138,7 @@
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2924,7 +3153,7 @@
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2939,7 +3168,7 @@
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2954,7 +3183,7 @@
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2969,7 +3198,7 @@
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2984,7 +3213,7 @@
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2999,7 +3228,7 @@
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3014,7 +3243,7 @@
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -3029,7 +3258,7 @@
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3044,7 +3273,7 @@
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3059,7 +3288,7 @@
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3074,7 +3303,7 @@
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3089,7 +3318,7 @@
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -3104,7 +3333,7 @@
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -3119,7 +3348,7 @@
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -3134,7 +3363,7 @@
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -3149,7 +3378,7 @@
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3164,7 +3393,7 @@
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -3179,7 +3408,7 @@
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -3194,7 +3423,7 @@
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -3209,7 +3438,7 @@
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -3224,7 +3453,7 @@
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -3239,7 +3468,7 @@
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -3254,7 +3483,7 @@
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -3269,7 +3498,7 @@
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3284,7 +3513,7 @@
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3299,7 +3528,7 @@
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -3314,7 +3543,7 @@
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -3329,7 +3558,7 @@
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -3344,7 +3573,7 @@
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -3359,7 +3588,7 @@
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -3374,7 +3603,7 @@
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3389,7 +3618,7 @@
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -3404,7 +3633,7 @@
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3419,7 +3648,7 @@
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3434,7 +3663,7 @@
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3449,7 +3678,7 @@
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3464,7 +3693,7 @@
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3479,7 +3708,7 @@
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3494,7 +3723,7 @@
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3509,7 +3738,7 @@
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3524,7 +3753,7 @@
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3539,7 +3768,7 @@
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3554,7 +3783,7 @@
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3569,7 +3798,7 @@
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3584,7 +3813,7 @@
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3599,7 +3828,7 @@
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3614,7 +3843,7 @@
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3629,7 +3858,7 @@
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3644,7 +3873,7 @@
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3659,7 +3888,7 @@
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3674,7 +3903,7 @@
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3689,7 +3918,7 @@
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3704,7 +3933,7 @@
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3719,7 +3948,7 @@
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3734,7 +3963,7 @@
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3749,7 +3978,7 @@
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3764,7 +3993,7 @@
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3779,7 +4008,7 @@
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3794,7 +4023,7 @@
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3809,7 +4038,7 @@
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3824,7 +4053,7 @@
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3839,7 +4068,7 @@
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -3854,7 +4083,7 @@
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -3869,7 +4098,7 @@
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -3884,7 +4113,7 @@
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -3899,7 +4128,7 @@
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -3914,7 +4143,7 @@
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -3929,7 +4158,7 @@
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -3944,7 +4173,7 @@
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -3959,7 +4188,7 @@
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -3974,7 +4203,7 @@
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -3989,7 +4218,7 @@
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -4004,7 +4233,7 @@
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -4019,7 +4248,7 @@
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -4034,7 +4263,7 @@
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -4049,7 +4278,7 @@
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -4064,7 +4293,7 @@
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -4079,7 +4308,7 @@
       <c r="L236" s="2"/>
       <c r="M236" s="2"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -4094,7 +4323,7 @@
       <c r="L237" s="2"/>
       <c r="M237" s="2"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -4109,7 +4338,7 @@
       <c r="L238" s="2"/>
       <c r="M238" s="2"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -4124,7 +4353,7 @@
       <c r="L239" s="2"/>
       <c r="M239" s="2"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -4139,7 +4368,7 @@
       <c r="L240" s="2"/>
       <c r="M240" s="2"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -4154,7 +4383,7 @@
       <c r="L241" s="2"/>
       <c r="M241" s="2"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -4169,7 +4398,7 @@
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -4184,7 +4413,7 @@
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -4199,7 +4428,7 @@
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -4214,7 +4443,7 @@
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -4229,7 +4458,7 @@
       <c r="L246" s="2"/>
       <c r="M246" s="2"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -4244,7 +4473,7 @@
       <c r="L247" s="2"/>
       <c r="M247" s="2"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -4259,7 +4488,7 @@
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -4274,7 +4503,7 @@
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -4289,7 +4518,7 @@
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -4304,7 +4533,7 @@
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -4319,7 +4548,7 @@
       <c r="L252" s="2"/>
       <c r="M252" s="2"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -4334,7 +4563,7 @@
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -4349,7 +4578,7 @@
       <c r="L254" s="2"/>
       <c r="M254" s="2"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -4364,7 +4593,7 @@
       <c r="L255" s="2"/>
       <c r="M255" s="2"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -4379,7 +4608,7 @@
       <c r="L256" s="2"/>
       <c r="M256" s="2"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -4394,7 +4623,7 @@
       <c r="L257" s="2"/>
       <c r="M257" s="2"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -4409,7 +4638,7 @@
       <c r="L258" s="2"/>
       <c r="M258" s="2"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -4424,7 +4653,7 @@
       <c r="L259" s="2"/>
       <c r="M259" s="2"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -4439,7 +4668,7 @@
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -4454,7 +4683,7 @@
       <c r="L261" s="2"/>
       <c r="M261" s="2"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -4469,7 +4698,7 @@
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -4484,7 +4713,7 @@
       <c r="L263" s="2"/>
       <c r="M263" s="2"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -4499,7 +4728,7 @@
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -4514,7 +4743,7 @@
       <c r="L265" s="2"/>
       <c r="M265" s="2"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -4529,7 +4758,7 @@
       <c r="L266" s="2"/>
       <c r="M266" s="2"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -4544,7 +4773,7 @@
       <c r="L267" s="2"/>
       <c r="M267" s="2"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -4559,7 +4788,7 @@
       <c r="L268" s="2"/>
       <c r="M268" s="2"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -4574,7 +4803,7 @@
       <c r="L269" s="2"/>
       <c r="M269" s="2"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -4589,7 +4818,7 @@
       <c r="L270" s="2"/>
       <c r="M270" s="2"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -4604,7 +4833,7 @@
       <c r="L271" s="2"/>
       <c r="M271" s="2"/>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -4619,7 +4848,7 @@
       <c r="L272" s="2"/>
       <c r="M272" s="2"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -4634,7 +4863,7 @@
       <c r="L273" s="2"/>
       <c r="M273" s="2"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -4649,7 +4878,7 @@
       <c r="L274" s="2"/>
       <c r="M274" s="2"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -4664,7 +4893,7 @@
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -4679,7 +4908,7 @@
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -4694,7 +4923,7 @@
       <c r="L277" s="2"/>
       <c r="M277" s="2"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -4709,7 +4938,7 @@
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -4724,7 +4953,7 @@
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -4739,7 +4968,7 @@
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -4754,7 +4983,7 @@
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -4769,7 +4998,7 @@
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -4784,7 +5013,7 @@
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -4799,7 +5028,7 @@
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -4814,7 +5043,7 @@
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -4829,7 +5058,7 @@
       <c r="L286" s="2"/>
       <c r="M286" s="2"/>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -4844,7 +5073,7 @@
       <c r="L287" s="2"/>
       <c r="M287" s="2"/>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -4859,7 +5088,7 @@
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -4874,7 +5103,7 @@
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -4889,7 +5118,7 @@
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -4904,7 +5133,7 @@
       <c r="L291" s="2"/>
       <c r="M291" s="2"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -4919,7 +5148,7 @@
       <c r="L292" s="2"/>
       <c r="M292" s="2"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -4934,7 +5163,7 @@
       <c r="L293" s="2"/>
       <c r="M293" s="2"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -4949,7 +5178,7 @@
       <c r="L294" s="2"/>
       <c r="M294" s="2"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -4964,7 +5193,7 @@
       <c r="L295" s="2"/>
       <c r="M295" s="2"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -4979,7 +5208,7 @@
       <c r="L296" s="2"/>
       <c r="M296" s="2"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -4994,7 +5223,7 @@
       <c r="L297" s="2"/>
       <c r="M297" s="2"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -5009,7 +5238,7 @@
       <c r="L298" s="2"/>
       <c r="M298" s="2"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -5024,7 +5253,7 @@
       <c r="L299" s="2"/>
       <c r="M299" s="2"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -5039,7 +5268,7 @@
       <c r="L300" s="2"/>
       <c r="M300" s="2"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -5054,7 +5283,7 @@
       <c r="L301" s="2"/>
       <c r="M301" s="2"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -5069,7 +5298,7 @@
       <c r="L302" s="2"/>
       <c r="M302" s="2"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -5084,7 +5313,7 @@
       <c r="L303" s="2"/>
       <c r="M303" s="2"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -5099,7 +5328,7 @@
       <c r="L304" s="2"/>
       <c r="M304" s="2"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -5114,7 +5343,7 @@
       <c r="L305" s="2"/>
       <c r="M305" s="2"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -5129,7 +5358,7 @@
       <c r="L306" s="2"/>
       <c r="M306" s="2"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -5144,7 +5373,7 @@
       <c r="L307" s="2"/>
       <c r="M307" s="2"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -5159,7 +5388,7 @@
       <c r="L308" s="2"/>
       <c r="M308" s="2"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -5174,7 +5403,7 @@
       <c r="L309" s="2"/>
       <c r="M309" s="2"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -5189,7 +5418,7 @@
       <c r="L310" s="2"/>
       <c r="M310" s="2"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -5204,7 +5433,7 @@
       <c r="L311" s="2"/>
       <c r="M311" s="2"/>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -5219,7 +5448,7 @@
       <c r="L312" s="2"/>
       <c r="M312" s="2"/>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -5234,7 +5463,7 @@
       <c r="L313" s="2"/>
       <c r="M313" s="2"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -5249,7 +5478,7 @@
       <c r="L314" s="2"/>
       <c r="M314" s="2"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -5264,7 +5493,7 @@
       <c r="L315" s="2"/>
       <c r="M315" s="2"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -5279,7 +5508,7 @@
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -5294,7 +5523,7 @@
       <c r="L317" s="2"/>
       <c r="M317" s="2"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -5309,7 +5538,7 @@
       <c r="L318" s="2"/>
       <c r="M318" s="2"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -5324,7 +5553,7 @@
       <c r="L319" s="2"/>
       <c r="M319" s="2"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -5339,7 +5568,7 @@
       <c r="L320" s="2"/>
       <c r="M320" s="2"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -5354,7 +5583,7 @@
       <c r="L321" s="2"/>
       <c r="M321" s="2"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -5369,7 +5598,7 @@
       <c r="L322" s="2"/>
       <c r="M322" s="2"/>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -5384,7 +5613,7 @@
       <c r="L323" s="2"/>
       <c r="M323" s="2"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -5399,7 +5628,7 @@
       <c r="L324" s="2"/>
       <c r="M324" s="2"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -5414,7 +5643,7 @@
       <c r="L325" s="2"/>
       <c r="M325" s="2"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -5429,7 +5658,7 @@
       <c r="L326" s="2"/>
       <c r="M326" s="2"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -5444,7 +5673,7 @@
       <c r="L327" s="2"/>
       <c r="M327" s="2"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -5459,7 +5688,7 @@
       <c r="L328" s="2"/>
       <c r="M328" s="2"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -5474,7 +5703,7 @@
       <c r="L329" s="2"/>
       <c r="M329" s="2"/>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -5489,7 +5718,7 @@
       <c r="L330" s="2"/>
       <c r="M330" s="2"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -5504,7 +5733,7 @@
       <c r="L331" s="2"/>
       <c r="M331" s="2"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -5519,7 +5748,7 @@
       <c r="L332" s="2"/>
       <c r="M332" s="2"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -5534,7 +5763,7 @@
       <c r="L333" s="2"/>
       <c r="M333" s="2"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -5549,7 +5778,7 @@
       <c r="L334" s="2"/>
       <c r="M334" s="2"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -5564,7 +5793,7 @@
       <c r="L335" s="2"/>
       <c r="M335" s="2"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -5579,7 +5808,7 @@
       <c r="L336" s="2"/>
       <c r="M336" s="2"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -5594,7 +5823,7 @@
       <c r="L337" s="2"/>
       <c r="M337" s="2"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -5609,7 +5838,7 @@
       <c r="L338" s="2"/>
       <c r="M338" s="2"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -5624,7 +5853,7 @@
       <c r="L339" s="2"/>
       <c r="M339" s="2"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -5639,7 +5868,7 @@
       <c r="L340" s="2"/>
       <c r="M340" s="2"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -5654,7 +5883,7 @@
       <c r="L341" s="2"/>
       <c r="M341" s="2"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -5669,7 +5898,7 @@
       <c r="L342" s="2"/>
       <c r="M342" s="2"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -5684,7 +5913,7 @@
       <c r="L343" s="2"/>
       <c r="M343" s="2"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -5699,7 +5928,7 @@
       <c r="L344" s="2"/>
       <c r="M344" s="2"/>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -5714,7 +5943,7 @@
       <c r="L345" s="2"/>
       <c r="M345" s="2"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -5729,7 +5958,7 @@
       <c r="L346" s="2"/>
       <c r="M346" s="2"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -5744,7 +5973,7 @@
       <c r="L347" s="2"/>
       <c r="M347" s="2"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -5759,7 +5988,7 @@
       <c r="L348" s="2"/>
       <c r="M348" s="2"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -5774,7 +6003,7 @@
       <c r="L349" s="2"/>
       <c r="M349" s="2"/>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -5789,7 +6018,7 @@
       <c r="L350" s="2"/>
       <c r="M350" s="2"/>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -5804,7 +6033,7 @@
       <c r="L351" s="2"/>
       <c r="M351" s="2"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -5819,7 +6048,7 @@
       <c r="L352" s="2"/>
       <c r="M352" s="2"/>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -5834,7 +6063,7 @@
       <c r="L353" s="2"/>
       <c r="M353" s="2"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -5849,7 +6078,7 @@
       <c r="L354" s="2"/>
       <c r="M354" s="2"/>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -5864,7 +6093,7 @@
       <c r="L355" s="2"/>
       <c r="M355" s="2"/>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -5879,7 +6108,7 @@
       <c r="L356" s="2"/>
       <c r="M356" s="2"/>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -5894,7 +6123,7 @@
       <c r="L357" s="2"/>
       <c r="M357" s="2"/>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -5909,7 +6138,7 @@
       <c r="L358" s="2"/>
       <c r="M358" s="2"/>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -5924,7 +6153,7 @@
       <c r="L359" s="2"/>
       <c r="M359" s="2"/>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -5939,7 +6168,7 @@
       <c r="L360" s="2"/>
       <c r="M360" s="2"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -5954,7 +6183,7 @@
       <c r="L361" s="2"/>
       <c r="M361" s="2"/>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -5969,7 +6198,7 @@
       <c r="L362" s="2"/>
       <c r="M362" s="2"/>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -5984,7 +6213,7 @@
       <c r="L363" s="2"/>
       <c r="M363" s="2"/>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -5999,7 +6228,7 @@
       <c r="L364" s="2"/>
       <c r="M364" s="2"/>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -6014,7 +6243,7 @@
       <c r="L365" s="2"/>
       <c r="M365" s="2"/>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -6029,7 +6258,7 @@
       <c r="L366" s="2"/>
       <c r="M366" s="2"/>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -6044,7 +6273,7 @@
       <c r="L367" s="2"/>
       <c r="M367" s="2"/>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -6059,7 +6288,7 @@
       <c r="L368" s="2"/>
       <c r="M368" s="2"/>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -6074,7 +6303,7 @@
       <c r="L369" s="2"/>
       <c r="M369" s="2"/>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -6089,7 +6318,7 @@
       <c r="L370" s="2"/>
       <c r="M370" s="2"/>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -6104,7 +6333,7 @@
       <c r="L371" s="2"/>
       <c r="M371" s="2"/>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -6119,7 +6348,7 @@
       <c r="L372" s="2"/>
       <c r="M372" s="2"/>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -6134,7 +6363,7 @@
       <c r="L373" s="2"/>
       <c r="M373" s="2"/>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -6149,7 +6378,7 @@
       <c r="L374" s="2"/>
       <c r="M374" s="2"/>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -6164,7 +6393,7 @@
       <c r="L375" s="2"/>
       <c r="M375" s="2"/>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -6179,7 +6408,7 @@
       <c r="L376" s="2"/>
       <c r="M376" s="2"/>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -6194,7 +6423,7 @@
       <c r="L377" s="2"/>
       <c r="M377" s="2"/>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -6209,7 +6438,7 @@
       <c r="L378" s="2"/>
       <c r="M378" s="2"/>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -6224,7 +6453,7 @@
       <c r="L379" s="2"/>
       <c r="M379" s="2"/>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -6239,7 +6468,7 @@
       <c r="L380" s="2"/>
       <c r="M380" s="2"/>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -6254,7 +6483,7 @@
       <c r="L381" s="2"/>
       <c r="M381" s="2"/>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -6269,7 +6498,7 @@
       <c r="L382" s="2"/>
       <c r="M382" s="2"/>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -6284,7 +6513,7 @@
       <c r="L383" s="2"/>
       <c r="M383" s="2"/>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -6299,7 +6528,7 @@
       <c r="L384" s="2"/>
       <c r="M384" s="2"/>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -6314,7 +6543,7 @@
       <c r="L385" s="2"/>
       <c r="M385" s="2"/>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -6329,7 +6558,7 @@
       <c r="L386" s="2"/>
       <c r="M386" s="2"/>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -6344,7 +6573,7 @@
       <c r="L387" s="2"/>
       <c r="M387" s="2"/>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -6359,7 +6588,7 @@
       <c r="L388" s="2"/>
       <c r="M388" s="2"/>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -6374,7 +6603,7 @@
       <c r="L389" s="2"/>
       <c r="M389" s="2"/>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -6389,7 +6618,7 @@
       <c r="L390" s="2"/>
       <c r="M390" s="2"/>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -6404,7 +6633,7 @@
       <c r="L391" s="2"/>
       <c r="M391" s="2"/>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -6419,7 +6648,7 @@
       <c r="L392" s="2"/>
       <c r="M392" s="2"/>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -6434,7 +6663,7 @@
       <c r="L393" s="2"/>
       <c r="M393" s="2"/>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -6449,7 +6678,7 @@
       <c r="L394" s="2"/>
       <c r="M394" s="2"/>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -6464,7 +6693,7 @@
       <c r="L395" s="2"/>
       <c r="M395" s="2"/>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -6479,7 +6708,7 @@
       <c r="L396" s="2"/>
       <c r="M396" s="2"/>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -6494,7 +6723,7 @@
       <c r="L397" s="2"/>
       <c r="M397" s="2"/>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -6509,7 +6738,7 @@
       <c r="L398" s="2"/>
       <c r="M398" s="2"/>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -6524,7 +6753,7 @@
       <c r="L399" s="2"/>
       <c r="M399" s="2"/>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -6539,7 +6768,7 @@
       <c r="L400" s="2"/>
       <c r="M400" s="2"/>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -6554,7 +6783,7 @@
       <c r="L401" s="2"/>
       <c r="M401" s="2"/>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -6569,7 +6798,7 @@
       <c r="L402" s="2"/>
       <c r="M402" s="2"/>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -6584,7 +6813,7 @@
       <c r="L403" s="2"/>
       <c r="M403" s="2"/>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -6599,7 +6828,7 @@
       <c r="L404" s="2"/>
       <c r="M404" s="2"/>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -6614,7 +6843,7 @@
       <c r="L405" s="2"/>
       <c r="M405" s="2"/>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -6629,7 +6858,7 @@
       <c r="L406" s="2"/>
       <c r="M406" s="2"/>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -6644,7 +6873,7 @@
       <c r="L407" s="2"/>
       <c r="M407" s="2"/>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -6659,7 +6888,7 @@
       <c r="L408" s="2"/>
       <c r="M408" s="2"/>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -6674,7 +6903,7 @@
       <c r="L409" s="2"/>
       <c r="M409" s="2"/>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -6689,7 +6918,7 @@
       <c r="L410" s="2"/>
       <c r="M410" s="2"/>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -6704,7 +6933,7 @@
       <c r="L411" s="2"/>
       <c r="M411" s="2"/>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -6719,7 +6948,7 @@
       <c r="L412" s="2"/>
       <c r="M412" s="2"/>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -6734,7 +6963,7 @@
       <c r="L413" s="2"/>
       <c r="M413" s="2"/>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -6749,7 +6978,7 @@
       <c r="L414" s="2"/>
       <c r="M414" s="2"/>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -6764,7 +6993,7 @@
       <c r="L415" s="2"/>
       <c r="M415" s="2"/>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -6779,7 +7008,7 @@
       <c r="L416" s="2"/>
       <c r="M416" s="2"/>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -6794,7 +7023,7 @@
       <c r="L417" s="2"/>
       <c r="M417" s="2"/>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -6809,7 +7038,7 @@
       <c r="L418" s="2"/>
       <c r="M418" s="2"/>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -6824,7 +7053,7 @@
       <c r="L419" s="2"/>
       <c r="M419" s="2"/>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -6839,7 +7068,7 @@
       <c r="L420" s="2"/>
       <c r="M420" s="2"/>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -6854,7 +7083,7 @@
       <c r="L421" s="2"/>
       <c r="M421" s="2"/>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -6869,7 +7098,7 @@
       <c r="L422" s="2"/>
       <c r="M422" s="2"/>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -6884,7 +7113,7 @@
       <c r="L423" s="2"/>
       <c r="M423" s="2"/>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -6899,7 +7128,7 @@
       <c r="L424" s="2"/>
       <c r="M424" s="2"/>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -6914,7 +7143,7 @@
       <c r="L425" s="2"/>
       <c r="M425" s="2"/>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -6929,7 +7158,7 @@
       <c r="L426" s="2"/>
       <c r="M426" s="2"/>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -6944,7 +7173,7 @@
       <c r="L427" s="2"/>
       <c r="M427" s="2"/>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -6959,7 +7188,7 @@
       <c r="L428" s="2"/>
       <c r="M428" s="2"/>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -6974,7 +7203,7 @@
       <c r="L429" s="2"/>
       <c r="M429" s="2"/>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -6989,7 +7218,7 @@
       <c r="L430" s="2"/>
       <c r="M430" s="2"/>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -7004,7 +7233,7 @@
       <c r="L431" s="2"/>
       <c r="M431" s="2"/>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -7019,7 +7248,7 @@
       <c r="L432" s="2"/>
       <c r="M432" s="2"/>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -7034,7 +7263,7 @@
       <c r="L433" s="2"/>
       <c r="M433" s="2"/>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -7049,7 +7278,7 @@
       <c r="L434" s="2"/>
       <c r="M434" s="2"/>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -7064,7 +7293,7 @@
       <c r="L435" s="2"/>
       <c r="M435" s="2"/>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -7079,7 +7308,7 @@
       <c r="L436" s="2"/>
       <c r="M436" s="2"/>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -7094,7 +7323,7 @@
       <c r="L437" s="2"/>
       <c r="M437" s="2"/>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -7109,7 +7338,7 @@
       <c r="L438" s="2"/>
       <c r="M438" s="2"/>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -7124,7 +7353,7 @@
       <c r="L439" s="2"/>
       <c r="M439" s="2"/>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -7139,7 +7368,7 @@
       <c r="L440" s="2"/>
       <c r="M440" s="2"/>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -7154,7 +7383,7 @@
       <c r="L441" s="2"/>
       <c r="M441" s="2"/>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -7169,7 +7398,7 @@
       <c r="L442" s="2"/>
       <c r="M442" s="2"/>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -7184,7 +7413,7 @@
       <c r="L443" s="2"/>
       <c r="M443" s="2"/>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -7199,7 +7428,7 @@
       <c r="L444" s="2"/>
       <c r="M444" s="2"/>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -7214,7 +7443,7 @@
       <c r="L445" s="2"/>
       <c r="M445" s="2"/>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -7229,7 +7458,7 @@
       <c r="L446" s="2"/>
       <c r="M446" s="2"/>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -7244,7 +7473,7 @@
       <c r="L447" s="2"/>
       <c r="M447" s="2"/>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -7259,7 +7488,7 @@
       <c r="L448" s="2"/>
       <c r="M448" s="2"/>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -7274,7 +7503,7 @@
       <c r="L449" s="2"/>
       <c r="M449" s="2"/>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -7289,7 +7518,7 @@
       <c r="L450" s="2"/>
       <c r="M450" s="2"/>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -7304,7 +7533,7 @@
       <c r="L451" s="2"/>
       <c r="M451" s="2"/>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -7319,7 +7548,7 @@
       <c r="L452" s="2"/>
       <c r="M452" s="2"/>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -7334,7 +7563,7 @@
       <c r="L453" s="2"/>
       <c r="M453" s="2"/>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -7349,7 +7578,7 @@
       <c r="L454" s="2"/>
       <c r="M454" s="2"/>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -7364,7 +7593,7 @@
       <c r="L455" s="2"/>
       <c r="M455" s="2"/>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -7379,7 +7608,7 @@
       <c r="L456" s="2"/>
       <c r="M456" s="2"/>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -7394,7 +7623,7 @@
       <c r="L457" s="2"/>
       <c r="M457" s="2"/>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -7409,7 +7638,7 @@
       <c r="L458" s="2"/>
       <c r="M458" s="2"/>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -7424,7 +7653,7 @@
       <c r="L459" s="2"/>
       <c r="M459" s="2"/>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -7439,7 +7668,7 @@
       <c r="L460" s="2"/>
       <c r="M460" s="2"/>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -7454,7 +7683,7 @@
       <c r="L461" s="2"/>
       <c r="M461" s="2"/>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -7469,7 +7698,7 @@
       <c r="L462" s="2"/>
       <c r="M462" s="2"/>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -7484,7 +7713,7 @@
       <c r="L463" s="2"/>
       <c r="M463" s="2"/>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -7499,7 +7728,7 @@
       <c r="L464" s="2"/>
       <c r="M464" s="2"/>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -7514,7 +7743,7 @@
       <c r="L465" s="2"/>
       <c r="M465" s="2"/>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -7529,7 +7758,7 @@
       <c r="L466" s="2"/>
       <c r="M466" s="2"/>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -7544,7 +7773,7 @@
       <c r="L467" s="2"/>
       <c r="M467" s="2"/>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -7559,7 +7788,7 @@
       <c r="L468" s="2"/>
       <c r="M468" s="2"/>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -7574,7 +7803,7 @@
       <c r="L469" s="2"/>
       <c r="M469" s="2"/>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -7589,7 +7818,7 @@
       <c r="L470" s="2"/>
       <c r="M470" s="2"/>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -7604,7 +7833,7 @@
       <c r="L471" s="2"/>
       <c r="M471" s="2"/>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -7619,7 +7848,7 @@
       <c r="L472" s="2"/>
       <c r="M472" s="2"/>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -7634,7 +7863,7 @@
       <c r="L473" s="2"/>
       <c r="M473" s="2"/>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -7649,7 +7878,7 @@
       <c r="L474" s="2"/>
       <c r="M474" s="2"/>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -7664,7 +7893,7 @@
       <c r="L475" s="2"/>
       <c r="M475" s="2"/>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -7679,7 +7908,7 @@
       <c r="L476" s="2"/>
       <c r="M476" s="2"/>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -7694,7 +7923,7 @@
       <c r="L477" s="2"/>
       <c r="M477" s="2"/>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -7709,7 +7938,7 @@
       <c r="L478" s="2"/>
       <c r="M478" s="2"/>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -7724,7 +7953,7 @@
       <c r="L479" s="2"/>
       <c r="M479" s="2"/>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -7739,7 +7968,7 @@
       <c r="L480" s="2"/>
       <c r="M480" s="2"/>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -7754,7 +7983,7 @@
       <c r="L481" s="2"/>
       <c r="M481" s="2"/>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -7769,7 +7998,7 @@
       <c r="L482" s="2"/>
       <c r="M482" s="2"/>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -7784,7 +8013,7 @@
       <c r="L483" s="2"/>
       <c r="M483" s="2"/>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -7799,7 +8028,7 @@
       <c r="L484" s="2"/>
       <c r="M484" s="2"/>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -7814,7 +8043,7 @@
       <c r="L485" s="2"/>
       <c r="M485" s="2"/>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -7829,7 +8058,7 @@
       <c r="L486" s="2"/>
       <c r="M486" s="2"/>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -7844,7 +8073,7 @@
       <c r="L487" s="2"/>
       <c r="M487" s="2"/>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -7859,7 +8088,7 @@
       <c r="L488" s="2"/>
       <c r="M488" s="2"/>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -7874,7 +8103,7 @@
       <c r="L489" s="2"/>
       <c r="M489" s="2"/>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -7889,7 +8118,7 @@
       <c r="L490" s="2"/>
       <c r="M490" s="2"/>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -7906,7 +8135,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J2:J491 L2:L491 H2:H491" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="H2:H491 J2:J491 L2:L491" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7920,47 +8149,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="120" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -7971,12 +8200,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e77b03f7-6b42-4e78-8b14-4247ca07b30f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="08b253f0-0cf0-4ce6-ac9e-c36033e13904">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8175,20 +8406,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e77b03f7-6b42-4e78-8b14-4247ca07b30f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="08b253f0-0cf0-4ce6-ac9e-c36033e13904">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C781B28-D2B6-47EA-84E0-7B862B52A9A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CE5F0C5-E46B-43C1-808E-CCA66432F024}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e77b03f7-6b42-4e78-8b14-4247ca07b30f"/>
+    <ds:schemaRef ds:uri="08b253f0-0cf0-4ce6-ac9e-c36033e13904"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8213,12 +8445,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CE5F0C5-E46B-43C1-808E-CCA66432F024}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C781B28-D2B6-47EA-84E0-7B862B52A9A4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e77b03f7-6b42-4e78-8b14-4247ca07b30f"/>
-    <ds:schemaRef ds:uri="08b253f0-0cf0-4ce6-ac9e-c36033e13904"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>